--- a/assets/generated/model2/ProductionCompletionTime.xlsx
+++ b/assets/generated/model2/ProductionCompletionTime.xlsx
@@ -345,7 +345,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/generated/model2/ProductionCompletionTime.xlsx
+++ b/assets/generated/model2/ProductionCompletionTime.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0</v>
+        <v>6516</v>
       </c>
     </row>
   </sheetData>
